--- a/data_year/zb/教育/网络本科分学科学生数/网络本科分学科招生数.xlsx
+++ b/data_year/zb/教育/网络本科分学科学生数/网络本科分学科招生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,686 +508,421 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.095</v>
+        <v>0.3541</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5157</v>
+        <v>4.1869</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0157</v>
+        <v>0.0582</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.0411</v>
       </c>
       <c r="F2" t="n">
-        <v>1.9161</v>
+        <v>1.1959</v>
       </c>
       <c r="G2" t="n">
-        <v>4.1229</v>
+        <v>9.5745</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1256</v>
+        <v>3.7629</v>
       </c>
       <c r="I2" t="n">
-        <v>1.2654</v>
+        <v>1.5943</v>
       </c>
       <c r="J2" t="n">
-        <v>8.3817</v>
+        <v>5.7012</v>
       </c>
       <c r="K2" t="n">
-        <v>8.4801</v>
+        <v>6.222</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9268</v>
+        <v>0.7786999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>16.2536</v>
+        <v>23.6522</v>
       </c>
       <c r="N2" t="n">
-        <v>2.7152</v>
+        <v>3.4157</v>
       </c>
       <c r="O2" t="n">
-        <v>42.7811</v>
+        <v>55.5789</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1527</v>
+        <v>0.4267</v>
       </c>
       <c r="C3" t="n">
-        <v>1.162</v>
+        <v>5.2344</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0238</v>
+        <v>0.0579</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>1.719</v>
+        <v>1.1781</v>
       </c>
       <c r="G3" t="n">
-        <v>4.2859</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.324</v>
-      </c>
+        <v>12.0311</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>1.1214</v>
+        <v>2.5925</v>
       </c>
       <c r="J3" t="n">
-        <v>8.047800000000001</v>
+        <v>5.2912</v>
       </c>
       <c r="K3" t="n">
-        <v>6.9999</v>
+        <v>6.6924</v>
       </c>
       <c r="L3" t="n">
-        <v>1.0058</v>
+        <v>0.7369</v>
       </c>
       <c r="M3" t="n">
-        <v>15.7492</v>
+        <v>27.8651</v>
       </c>
       <c r="N3" t="n">
-        <v>2.3121</v>
+        <v>3.4711</v>
       </c>
       <c r="O3" t="n">
-        <v>40.8606</v>
+        <v>64.3993</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1514</v>
+        <v>0.5185999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>1.6613</v>
+        <v>5.6247</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0723</v>
+        <v>0.044</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>1.9604</v>
+        <v>0.8954</v>
       </c>
       <c r="G4" t="n">
-        <v>5.4414</v>
+        <v>14.4903</v>
       </c>
       <c r="H4" t="n">
-        <v>5.5601</v>
+        <v>2.8183</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5658</v>
+        <v>2.6271</v>
       </c>
       <c r="J4" t="n">
-        <v>9.246499999999999</v>
+        <v>4.595</v>
       </c>
       <c r="K4" t="n">
-        <v>9.1203</v>
+        <v>6.4387</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4294</v>
+        <v>0.6629</v>
       </c>
       <c r="M4" t="n">
-        <v>19.2362</v>
+        <v>31.2939</v>
       </c>
       <c r="N4" t="n">
-        <v>3.0284</v>
+        <v>3.3746</v>
       </c>
       <c r="O4" t="n">
-        <v>50.953</v>
+        <v>69.6698</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2262</v>
+        <v>0.6936</v>
       </c>
       <c r="C5" t="n">
-        <v>2.4163</v>
+        <v>6.768</v>
       </c>
       <c r="D5" t="n">
-        <v>0.074</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0068</v>
-      </c>
+        <v>0.0544</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>1.7325</v>
+        <v>0.7977</v>
       </c>
       <c r="G5" t="n">
-        <v>6.0678</v>
+        <v>18.065</v>
       </c>
       <c r="H5" t="n">
-        <v>4.25</v>
+        <v>2.3171</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5561</v>
+        <v>3.157</v>
       </c>
       <c r="J5" t="n">
-        <v>8.013299999999999</v>
+        <v>4.4643</v>
       </c>
       <c r="K5" t="n">
-        <v>6.8287</v>
+        <v>7.2513</v>
       </c>
       <c r="L5" t="n">
-        <v>1.1534</v>
+        <v>0.6838</v>
       </c>
       <c r="M5" t="n">
-        <v>20.5315</v>
+        <v>35.4393</v>
       </c>
       <c r="N5" t="n">
-        <v>2.9252</v>
+        <v>3.5464</v>
       </c>
       <c r="O5" t="n">
-        <v>49.7993</v>
+        <v>80.4378</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2977</v>
+        <v>0.73</v>
       </c>
       <c r="C6" t="n">
-        <v>2.9706</v>
+        <v>7.4184</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0823</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0022</v>
-      </c>
+        <v>0.0428</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>1.7246</v>
+        <v>0.6788999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>7.3594</v>
+        <v>19.4852</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6152</v>
+        <v>1.439</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5163</v>
+        <v>3.314</v>
       </c>
       <c r="J6" t="n">
-        <v>7.5704</v>
+        <v>3.9435</v>
       </c>
       <c r="K6" t="n">
-        <v>6.6319</v>
+        <v>5.7956</v>
       </c>
       <c r="L6" t="n">
-        <v>1.0893</v>
+        <v>0.701</v>
       </c>
       <c r="M6" t="n">
-        <v>22.9184</v>
+        <v>33.2659</v>
       </c>
       <c r="N6" t="n">
-        <v>3.1529</v>
+        <v>3.0862</v>
       </c>
       <c r="O6" t="n">
-        <v>53.5914</v>
+        <v>78.14449999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3371</v>
+        <v>0.768</v>
       </c>
       <c r="C7" t="n">
-        <v>3.6054</v>
+        <v>7.5561</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0633</v>
+        <v>0.0378</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>1.5433</v>
+        <v>0.5867</v>
       </c>
       <c r="G7" t="n">
-        <v>8.6677</v>
+        <v>18.8824</v>
       </c>
       <c r="H7" t="n">
-        <v>5.276</v>
+        <v>1.8224</v>
       </c>
       <c r="I7" t="n">
-        <v>1.6233</v>
+        <v>3.4856</v>
       </c>
       <c r="J7" t="n">
-        <v>6.8459</v>
+        <v>3.4037</v>
       </c>
       <c r="K7" t="n">
-        <v>6.5638</v>
+        <v>5.8525</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9193</v>
+        <v>0.6147</v>
       </c>
       <c r="M7" t="n">
-        <v>23.3111</v>
+        <v>31.0259</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1918</v>
+        <v>2.9509</v>
       </c>
       <c r="O7" t="n">
-        <v>55.1287</v>
+        <v>74.866</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.3541</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4.1869</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0582</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0411</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.1959</v>
-      </c>
-      <c r="G8" t="n">
-        <v>9.5745</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.7629</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.5943</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.7012</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6.222</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.7786999999999999</v>
-      </c>
-      <c r="M8" t="n">
-        <v>23.6522</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.4157</v>
-      </c>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>55.5789</v>
+        <v>84.7568</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.4267</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5.2344</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0579</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>1.1781</v>
-      </c>
-      <c r="G9" t="n">
-        <v>12.0311</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>2.5925</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.2912</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6.6924</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.7369</v>
-      </c>
-      <c r="M9" t="n">
-        <v>27.8651</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.4711</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>64.3993</v>
+        <v>99.3253</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5185999999999999</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5.6247</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.044</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>0.8954</v>
-      </c>
-      <c r="G10" t="n">
-        <v>14.4903</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.8183</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.6271</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.595</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.4387</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.6629</v>
-      </c>
-      <c r="M10" t="n">
-        <v>31.2939</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.3746</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>69.6698</v>
+        <v>104.436</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.6936</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.768</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0544</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>0.7977</v>
-      </c>
-      <c r="G11" t="n">
-        <v>18.065</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.3171</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.157</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.4643</v>
-      </c>
-      <c r="K11" t="n">
-        <v>7.2513</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.6838</v>
-      </c>
-      <c r="M11" t="n">
-        <v>35.4393</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.5464</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>80.4378</v>
+        <v>100.6897</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="C12" t="n">
-        <v>7.4184</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0428</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.6788999999999999</v>
-      </c>
-      <c r="G12" t="n">
-        <v>19.4852</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.439</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.314</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.9435</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.7956</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.701</v>
-      </c>
-      <c r="M12" t="n">
-        <v>33.2659</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.0862</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>78.14449999999999</v>
+        <v>107.2248</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.768</v>
-      </c>
-      <c r="C13" t="n">
-        <v>7.5561</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.0378</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.5867</v>
-      </c>
-      <c r="G13" t="n">
-        <v>18.8824</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.8224</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.4856</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.4037</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.8525</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.6147</v>
-      </c>
-      <c r="M13" t="n">
-        <v>31.0259</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.9509</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>74.866</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>84.7568</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
-        <v>99.3253</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
-        <v>104.436</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>100.6897</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>107.2248</v>
+        <v>118.6772</v>
       </c>
     </row>
   </sheetData>
